--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail13 Features.xlsx
@@ -2579,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2590,29 +2590,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2633,115 +2631,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2758,72 +2746,66 @@
         <v>2.9624307016719e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5603100800019709</v>
+        <v>1.256062449738842e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.34933371238946</v>
+        <v>6.794086849782364e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.256062449738842e-06</v>
+        <v>-0.03912423794544024</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.794086849782364e-06</v>
+        <v>0.243013479775208</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03912423794544024</v>
+        <v>0.06056293698539161</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.243013479775208</v>
+        <v>1.505076873326947</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06056293698539161</v>
+        <v>1.336745386485685</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.434563942558771</v>
+        <v>4.02158512531262</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.336745386485685</v>
+        <v>1.411949170505967e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.02158512531262</v>
+        <v>4119996.933358649</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.411949170505967e-13</v>
+        <v>2.349925402384837e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4119996.933358649</v>
+        <v>2.396695432113007</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.349925402384837e-05</v>
+        <v>0.0001718279500670544</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.396695432113007</v>
+        <v>8.773995466034711</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001718279500670544</v>
+        <v>1.336503294031793</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.773995466034711</v>
+        <v>0.01322783046796049</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.336503294031793</v>
+        <v>2.732156205176982</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01322783046796049</v>
+        <v>0.932340238970316</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.732156205176982</v>
+        <v>1.907928714205456</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.932340238970316</v>
+        <v>2</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.907928714205456</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1428362542533838</v>
       </c>
     </row>
@@ -2838,72 +2820,66 @@
         <v>3.055585121527792e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4955808186432842</v>
+        <v>1.303513971898536e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.3642071939664686</v>
+        <v>6.783390888685644e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.303513971898536e-06</v>
+        <v>-0.03257358318297133</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.783390888685644e-06</v>
+        <v>0.229036566744003</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03257358318297133</v>
+        <v>0.0535081665114406</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.229036566744003</v>
+        <v>1.503363746026723</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0535081665114406</v>
+        <v>1.321505397602503</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.434850316075322</v>
+        <v>4.148502881459551</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.321505397602503</v>
+        <v>1.326877415846537e-13</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.148502881459551</v>
+        <v>4353615.631502767</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.326877415846537e-13</v>
+        <v>2.218927452131171e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4353615.631502767</v>
+        <v>2.514959349547734</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.218927452131171e-05</v>
+        <v>0.0001698028888624187</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.514959349547734</v>
+        <v>8.509518259901823</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001698028888624187</v>
+        <v>1.374573731876714</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.509518259901823</v>
+        <v>0.01229574998046883</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.374573731876714</v>
+        <v>2.756182039619996</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01229574998046883</v>
+        <v>0.9337127430206053</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.756182039619996</v>
+        <v>1.909055385736267</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9337127430206053</v>
+        <v>2</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.909055385736267</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.143603531744093</v>
       </c>
     </row>
@@ -2918,72 +2894,66 @@
         <v>3.156995814703657e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4122793903009943</v>
+        <v>1.341220641722083e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.391476492519486</v>
+        <v>6.773901552618497e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.341220641722083e-06</v>
+        <v>-0.0291424814614365</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.773901552618497e-06</v>
+        <v>0.2197937215282107</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0291424814614365</v>
+        <v>0.04915662183570847</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2197937215282107</v>
+        <v>1.49602732691043</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04915662183570847</v>
+        <v>1.31704135905534</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.429673948988615</v>
+        <v>4.303826862511416</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.31704135905534</v>
+        <v>1.232832317878324e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.303826862511416</v>
+        <v>4678245.264602193</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.232832317878324e-13</v>
+        <v>2.058982518422413e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4678245.264602193</v>
+        <v>2.698174191851519</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.058982518422413e-05</v>
+        <v>0.0001706763374775342</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.698174191851519</v>
+        <v>9.969980716601601</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001706763374775342</v>
+        <v>1.184187896618835</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.969980716601601</v>
+        <v>0.01696531592711103</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.184187896618835</v>
+        <v>2.626833835308917</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01696531592711103</v>
+        <v>0.9342222434591725</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.626833835308917</v>
+        <v>1.875482912220175</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9342222434591725</v>
+        <v>2</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.875482912220175</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1472548569075811</v>
       </c>
     </row>
@@ -2998,72 +2968,66 @@
         <v>3.260973210241444e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.33095475172462</v>
+        <v>1.365358151297858e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4233954232668813</v>
+        <v>6.764716405932349e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.365358151297858e-06</v>
+        <v>-0.02832265846118555</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.764716405932349e-06</v>
+        <v>0.2127683513443577</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02832265846118555</v>
+        <v>0.04607243900926663</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2127683513443577</v>
+        <v>1.524846749879117</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04607243900926663</v>
+        <v>1.321870710507208</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.464050095292054</v>
+        <v>4.049335286749702</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.321870710507208</v>
+        <v>1.086323883553598e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.049335286749702</v>
+        <v>5219752.102871505</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.086323883553598e-13</v>
+        <v>1.866770983666316e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5219752.102871505</v>
+        <v>2.959777631917483</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.866770983666316e-05</v>
+        <v>0.0001914414177920944</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2.959777631917483</v>
+        <v>12.07238640128285</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001914414177920944</v>
+        <v>1.042589404451429</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.07238640128285</v>
+        <v>0.02790115340206788</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.042589404451429</v>
+        <v>2.325593632817916</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02790115340206788</v>
+        <v>0.9385870968250863</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.325593632817916</v>
+        <v>1.89308037396546</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9385870968250863</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.89308037396546</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1434014267583104</v>
       </c>
     </row>
@@ -3440,7 +3404,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.531178378367627</v>
+        <v>1.530290201494257</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.271947264108721</v>
@@ -3529,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.479425169587672</v>
+        <v>1.481203495574001</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.247703370094075</v>
@@ -3618,7 +3582,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.452753211992642</v>
+        <v>1.46221826972819</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.369986464684165</v>
@@ -3707,7 +3671,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.456986899361505</v>
+        <v>1.467084168604052</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.388755777394543</v>
@@ -3796,7 +3760,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466023535887843</v>
+        <v>1.466922352576568</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.269300966161801</v>
@@ -3885,7 +3849,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485521536137715</v>
+        <v>1.48202872156199</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.383860135225423</v>
@@ -3974,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.445801571101917</v>
+        <v>1.439042500003255</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.270877617445023</v>
@@ -4063,7 +4027,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.446081609296139</v>
+        <v>1.440835436194605</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.242320326683472</v>
@@ -4152,7 +4116,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.430585708994031</v>
+        <v>1.42456562242896</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.233160741070406</v>
@@ -4241,7 +4205,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.426083400102818</v>
+        <v>1.419366192742222</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.21924282540156</v>
@@ -4330,7 +4294,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.39684450906807</v>
+        <v>1.38300848396643</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.979617209939791</v>
@@ -4419,7 +4383,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.372578914914986</v>
+        <v>1.361629996889266</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.925697412122269</v>
@@ -4508,7 +4472,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.365428498058143</v>
+        <v>1.355989602490936</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.968636344315906</v>
@@ -4597,7 +4561,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.361813894837572</v>
+        <v>1.351794965650757</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.008799661224643</v>
@@ -4686,7 +4650,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.385043577573102</v>
+        <v>1.372540561087986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.96227828806139</v>
@@ -4775,7 +4739,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.405198607148215</v>
+        <v>1.381702393025214</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.989339758686202</v>
@@ -4864,7 +4828,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.448029671309273</v>
+        <v>1.411948321770023</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.809814221334477</v>
@@ -4953,7 +4917,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.44104845774094</v>
+        <v>1.40038198620039</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.850083054346929</v>
@@ -5042,7 +5006,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.435850119985897</v>
+        <v>1.394454068718608</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.83142764044066</v>
@@ -5131,7 +5095,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.429591715187531</v>
+        <v>1.390537256145657</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.835950078306792</v>
@@ -5220,7 +5184,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.442663356564022</v>
+        <v>1.394870650620689</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.731528818209248</v>
@@ -5309,7 +5273,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.45250551198401</v>
+        <v>1.417655774195869</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.772480073187892</v>
@@ -5398,7 +5362,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.451687505091812</v>
+        <v>1.417904543520684</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.83604424413625</v>
@@ -5487,7 +5451,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.458256407911657</v>
+        <v>1.425692965118018</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.80214997105869</v>
@@ -5576,7 +5540,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.408067985346791</v>
+        <v>1.386458102775226</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.792006317873074</v>
@@ -5665,7 +5629,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.458579458684974</v>
+        <v>1.443763888680255</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.127067775242235</v>
@@ -5754,7 +5718,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.499976249813343</v>
+        <v>1.476596250823798</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.219974065607189</v>
@@ -5843,7 +5807,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513335819755486</v>
+        <v>1.483429627938964</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.20818369482589</v>
@@ -5932,7 +5896,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.523369549902673</v>
+        <v>1.488405783735785</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.260320406271645</v>
@@ -6021,7 +5985,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.525648371301741</v>
+        <v>1.492665727604616</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.263416031978368</v>
@@ -6110,7 +6074,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.512095288084104</v>
+        <v>1.484777752038875</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.231309585726486</v>
@@ -6199,7 +6163,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.490678924159479</v>
+        <v>1.471398149372362</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.24462423167729</v>
@@ -6288,7 +6252,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.485381007468009</v>
+        <v>1.46676764256982</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.286008161268878</v>
@@ -6377,7 +6341,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.489018901123446</v>
+        <v>1.471307965463472</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.260802549767811</v>
@@ -6466,7 +6430,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.481660436525433</v>
+        <v>1.465020023621347</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.295344604970056</v>
@@ -6555,7 +6519,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.48138553276639</v>
+        <v>1.465092263793002</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.272202976359098</v>
@@ -6644,7 +6608,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.484260921314696</v>
+        <v>1.463485871945795</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.159048927895754</v>
@@ -6733,7 +6697,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486399396057729</v>
+        <v>1.462873326434071</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.296236791583247</v>
@@ -6822,7 +6786,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.492998795907436</v>
+        <v>1.466300242289747</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.118622818071398</v>
@@ -6911,7 +6875,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.526863090200347</v>
+        <v>1.491449152484673</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.384716551893971</v>
@@ -7000,7 +6964,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532814550741466</v>
+        <v>1.488360172766928</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.467831062526203</v>
@@ -7089,7 +7053,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.535947493368817</v>
+        <v>1.48461634861994</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.481645620010957</v>
@@ -7178,7 +7142,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.509852171403538</v>
+        <v>1.461724887021925</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.430762582938644</v>
@@ -7267,7 +7231,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.499680015098574</v>
+        <v>1.45496112006625</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.39017286857711</v>
@@ -7356,7 +7320,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.489068517823479</v>
+        <v>1.444783092194027</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.418186258788487</v>
@@ -7445,7 +7409,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.464511402407706</v>
+        <v>1.422207376464436</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.281602870429375</v>
@@ -7534,7 +7498,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.448379430342143</v>
+        <v>1.404033089478879</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.197839519271618</v>
@@ -7623,7 +7587,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.407693393167331</v>
+        <v>1.37185636752386</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.244946891244584</v>
@@ -7712,7 +7676,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.390743897397981</v>
+        <v>1.358472292431101</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.345116138377431</v>
@@ -7998,7 +7962,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.798027033990169</v>
+        <v>1.714913675180747</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.83853236663278</v>
@@ -8087,7 +8051,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.794715606314986</v>
+        <v>1.714468011269339</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.77537352369171</v>
@@ -8176,7 +8140,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.792685429870874</v>
+        <v>1.714623596565258</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.828569205843041</v>
@@ -8265,7 +8229,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.782417221032542</v>
+        <v>1.696165224858172</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.867169564405123</v>
@@ -8354,7 +8318,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.778912832630097</v>
+        <v>1.685770381403788</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.464533183661115</v>
@@ -8443,7 +8407,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.763662987419137</v>
+        <v>1.674717260666538</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.566907329322075</v>
@@ -8532,7 +8496,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.685006823744755</v>
+        <v>1.614343205757949</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.308696774233338</v>
@@ -8621,7 +8585,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.676267647521295</v>
+        <v>1.609327011455043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.285872609890714</v>
@@ -8710,7 +8674,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.662554347709551</v>
+        <v>1.594134730403802</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.252077275933118</v>
@@ -8799,7 +8763,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.65705898883967</v>
+        <v>1.587691530362333</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.246672647930746</v>
@@ -8888,7 +8852,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.570777867502896</v>
+        <v>1.511345921579311</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.994444173213765</v>
@@ -8977,7 +8941,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.577267738709177</v>
+        <v>1.524425134981459</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.984741677035244</v>
@@ -9066,7 +9030,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571825001504018</v>
+        <v>1.521401328471091</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.984331850648319</v>
@@ -9155,7 +9119,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.564918130727508</v>
+        <v>1.517588139673842</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.013648954818076</v>
@@ -9244,7 +9208,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.548944517879833</v>
+        <v>1.502852208803256</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.004031035825799</v>
@@ -9333,7 +9297,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.536439763411247</v>
+        <v>1.492861637677044</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.961469270643097</v>
@@ -9422,7 +9386,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.52492476916424</v>
+        <v>1.475834172904169</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.94256793657763</v>
@@ -9511,7 +9475,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.511313501102562</v>
+        <v>1.457428293224985</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.891448755614494</v>
@@ -9600,7 +9564,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.510938076390375</v>
+        <v>1.45763936644845</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.873895382281872</v>
@@ -9689,7 +9653,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.504065915912539</v>
+        <v>1.447585838712623</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.863240429613033</v>
@@ -9778,7 +9742,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518385146891664</v>
+        <v>1.443528571327294</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.74196037853863</v>
@@ -9867,7 +9831,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.546777270137631</v>
+        <v>1.476957579507059</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.784012384850852</v>
@@ -9956,7 +9920,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.548541760011397</v>
+        <v>1.470906682723061</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.793777099501764</v>
@@ -10045,7 +10009,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.559236870309899</v>
+        <v>1.482599624359657</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.804404892220903</v>
@@ -10134,7 +10098,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.568630874311133</v>
+        <v>1.493606953415734</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.788821884886502</v>
@@ -10223,7 +10187,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.69098118943082</v>
+        <v>1.595777517159024</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.735336813641614</v>
@@ -10312,7 +10276,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.686714854083397</v>
+        <v>1.580346127009176</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.00321823040491</v>
@@ -10401,7 +10365,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.687186555566184</v>
+        <v>1.578805697244648</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.429085564433496</v>
@@ -10490,7 +10454,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.699812079646861</v>
+        <v>1.58146588806994</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.298165595145012</v>
@@ -10579,7 +10543,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.717933014771289</v>
+        <v>1.597280508535614</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.263394418002503</v>
@@ -10668,7 +10632,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.733638610300493</v>
+        <v>1.614276538467059</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.330183606663172</v>
@@ -10757,7 +10721,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.748256797987866</v>
+        <v>1.638073016504247</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.04994955188453</v>
@@ -10846,7 +10810,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.76295313342722</v>
+        <v>1.651194164320546</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.509201225004133</v>
@@ -10935,7 +10899,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.764490651176749</v>
+        <v>1.648260257934582</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.794137662074377</v>
@@ -11024,7 +10988,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.768639085015741</v>
+        <v>1.662403550900877</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.191147698661779</v>
@@ -11113,7 +11077,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.771692067293878</v>
+        <v>1.669615196517235</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.680065190311221</v>
@@ -11202,7 +11166,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.764507973099601</v>
+        <v>1.663969414456245</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.126880358387634</v>
@@ -11291,7 +11255,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.763431721965859</v>
+        <v>1.668577043619417</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.654534307514487</v>
@@ -11380,7 +11344,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.758299971786563</v>
+        <v>1.665287686200703</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.38211209676343</v>
@@ -11469,7 +11433,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.731488196647101</v>
+        <v>1.645214051982637</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.141041370651544</v>
@@ -11558,7 +11522,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.728989060979556</v>
+        <v>1.640737312130234</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.219277432877148</v>
@@ -11647,7 +11611,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.732815834065709</v>
+        <v>1.638220851639016</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.823218016114232</v>
@@ -11736,7 +11700,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.722251783623607</v>
+        <v>1.630715952226873</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.22342884786554</v>
@@ -11825,7 +11789,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711004129477794</v>
+        <v>1.622304302975822</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.805980716841409</v>
@@ -11914,7 +11878,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.701905933794262</v>
+        <v>1.606640046134908</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.844252904778068</v>
@@ -12003,7 +11967,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.684892245466787</v>
+        <v>1.588559661136727</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.989493382997001</v>
@@ -12092,7 +12056,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.659256843454438</v>
+        <v>1.559373963790701</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.733393650806089</v>
@@ -12181,7 +12145,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.661546727495188</v>
+        <v>1.561053471256603</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.89079249236671</v>
@@ -12270,7 +12234,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.638179226583993</v>
+        <v>1.560831524399429</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.621969574585756</v>
@@ -12556,7 +12520,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.677181371094801</v>
+        <v>1.606108730298313</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.777886900953172</v>
@@ -12645,7 +12609,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.641955031859689</v>
+        <v>1.583793466649841</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.655191985184975</v>
@@ -12734,7 +12698,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.621663913581651</v>
+        <v>1.576693719465219</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.646892328791502</v>
@@ -12823,7 +12787,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.619949848218789</v>
+        <v>1.570438002402891</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.773400261401164</v>
@@ -12912,7 +12876,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.614067753410187</v>
+        <v>1.555878610809695</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.71550427984887</v>
@@ -13001,7 +12965,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.635879393122103</v>
+        <v>1.57762140324896</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.369168221256994</v>
@@ -13090,7 +13054,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573733597076739</v>
+        <v>1.52673614407474</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.2929529823409</v>
@@ -13179,7 +13143,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.565635715017501</v>
+        <v>1.520901096360004</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.266887933794764</v>
@@ -13268,7 +13232,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.56173943901883</v>
+        <v>1.516389175099151</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.233534261910334</v>
@@ -13357,7 +13321,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.559806586740038</v>
+        <v>1.514779780797561</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.197153761103667</v>
@@ -13446,7 +13410,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501929549809247</v>
+        <v>1.459236702654328</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.010468168568922</v>
@@ -13535,7 +13499,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.49783021036628</v>
+        <v>1.460487316923721</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.009092121332139</v>
@@ -13624,7 +13588,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.497558771711327</v>
+        <v>1.45938960931929</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.024737901936501</v>
@@ -13713,7 +13677,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.50624736563606</v>
+        <v>1.47044971546278</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.993723085748549</v>
@@ -13802,7 +13766,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.498645644979243</v>
+        <v>1.461206288831716</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.020018246461618</v>
@@ -13891,7 +13855,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.512273038627167</v>
+        <v>1.460126736879017</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.951096921680716</v>
@@ -13980,7 +13944,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.532569906637239</v>
+        <v>1.466358804661772</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.945640325786979</v>
@@ -14069,7 +14033,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.520376403725898</v>
+        <v>1.445392141534436</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.932857441115658</v>
@@ -14158,7 +14122,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.525868832529447</v>
+        <v>1.450604006906139</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.877925072369982</v>
@@ -14247,7 +14211,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.531092883054987</v>
+        <v>1.455152604841035</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.873035750432209</v>
@@ -14336,7 +14300,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.526982329643923</v>
+        <v>1.433124726035589</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.738448268800086</v>
@@ -14425,7 +14389,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.55909826373441</v>
+        <v>1.465848499216286</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.78116189004831</v>
@@ -14514,7 +14478,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.564293081200978</v>
+        <v>1.46842173341018</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.779013460772033</v>
@@ -14603,7 +14567,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567206814923156</v>
+        <v>1.474956803921441</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.793562407837128</v>
@@ -14692,7 +14656,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574484590425076</v>
+        <v>1.483673555452297</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.765646242777815</v>
@@ -14781,7 +14745,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.704914370681144</v>
+        <v>1.585282413836714</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.640391125381716</v>
@@ -14870,7 +14834,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.711958113667378</v>
+        <v>1.58240333332251</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.472702550319041</v>
@@ -14959,7 +14923,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.717389904271422</v>
+        <v>1.584396614646654</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.422246837043799</v>
@@ -15048,7 +15012,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.703431534604732</v>
+        <v>1.564160866262189</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.379201941028736</v>
@@ -15137,7 +15101,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.706683683763953</v>
+        <v>1.563879024984271</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.168318267746499</v>
@@ -15226,7 +15190,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713025339112098</v>
+        <v>1.575378547416105</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.254145843756307</v>
@@ -15315,7 +15279,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.717121568328551</v>
+        <v>1.584573621866163</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.165804670421832</v>
@@ -15404,7 +15368,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.708945934184899</v>
+        <v>1.583103213418301</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.883855837328194</v>
@@ -15493,7 +15457,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.700823970694931</v>
+        <v>1.577654120568272</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.047081498086416</v>
@@ -15582,7 +15546,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.701140069625698</v>
+        <v>1.574904852820931</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.866729613560832</v>
@@ -15671,7 +15635,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.699747039320725</v>
+        <v>1.578123250373604</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.706600820321938</v>
@@ -15760,7 +15724,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.690707895679583</v>
+        <v>1.572599076876561</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.762625615365502</v>
@@ -15849,7 +15813,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.698544730790296</v>
+        <v>1.579268205302075</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.783845171177522</v>
@@ -15938,7 +15902,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.707718977777575</v>
+        <v>1.592417417317</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.920465429216478</v>
@@ -16027,7 +15991,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.675768558470013</v>
+        <v>1.578099111082198</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.526313503270186</v>
@@ -16116,7 +16080,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.667362089557977</v>
+        <v>1.568212540909407</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.53657075518101</v>
@@ -16205,7 +16169,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.661124942149816</v>
+        <v>1.560569627448631</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.635807242716042</v>
@@ -16294,7 +16258,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.650883399119369</v>
+        <v>1.553362198979351</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.577516403207838</v>
@@ -16383,7 +16347,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.655319776319503</v>
+        <v>1.560295365654137</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.449670166989504</v>
@@ -16472,7 +16436,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.648715086873197</v>
+        <v>1.559545250755113</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.557931422748515</v>
@@ -16561,7 +16525,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.63545833889374</v>
+        <v>1.547243575576928</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.548501533438792</v>
@@ -16650,7 +16614,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.629290281561535</v>
+        <v>1.542695657185356</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.556952803960183</v>
@@ -16739,7 +16703,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.641121710884</v>
+        <v>1.556106218180762</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.378902325047473</v>
@@ -16828,7 +16792,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.644966831093718</v>
+        <v>1.564748065951941</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.566182609992218</v>
@@ -17114,7 +17078,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512692469171159</v>
+        <v>1.421159912271098</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.662577588280883</v>
@@ -17203,7 +17167,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.515078730579263</v>
+        <v>1.426528687671999</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.679250554421171</v>
@@ -17292,7 +17256,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.51778475893386</v>
+        <v>1.433272211728128</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.666832091506017</v>
@@ -17381,7 +17345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.672266688699349</v>
+        <v>1.536802738692394</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.47094029223683</v>
@@ -17470,7 +17434,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.687130424008404</v>
+        <v>1.539850713838927</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.142323396004997</v>
@@ -17559,7 +17523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.685553425969512</v>
+        <v>1.545587921462814</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.439101565479059</v>
@@ -17648,7 +17612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.609153162924857</v>
+        <v>1.490810829112514</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.138212022575889</v>
@@ -17737,7 +17701,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606634382622957</v>
+        <v>1.491198734860461</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.084209438383922</v>
@@ -17826,7 +17790,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.604489253196836</v>
+        <v>1.491681126414212</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.131757092346241</v>
@@ -17915,7 +17879,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.604755923297712</v>
+        <v>1.488239492414084</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.123226980682339</v>
@@ -18004,7 +17968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563910223778516</v>
+        <v>1.462038998593624</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.07970390683837</v>
@@ -18093,7 +18057,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.556971077506131</v>
+        <v>1.460795502622055</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.080504111455565</v>
@@ -18182,7 +18146,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.556099991587954</v>
+        <v>1.457697445077561</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.097616836837122</v>
@@ -18271,7 +18235,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552521755302071</v>
+        <v>1.44960871837532</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.060322298928885</v>
@@ -18360,7 +18324,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.545725031171529</v>
+        <v>1.442244965139819</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.031227567933812</v>
@@ -18449,7 +18413,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.536140542158388</v>
+        <v>1.435708637253545</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.009601273011639</v>
@@ -18538,7 +18502,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.53717975073776</v>
+        <v>1.431897254894406</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.017592924631689</v>
@@ -18627,7 +18591,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.530542008995689</v>
+        <v>1.418018313911549</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.016599408608204</v>
@@ -18716,7 +18680,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.527870171944383</v>
+        <v>1.411512320299324</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.978488450629859</v>
@@ -18805,7 +18769,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.528303497097919</v>
+        <v>1.413071431515512</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.956143383491611</v>
@@ -18894,7 +18858,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.530551956714682</v>
+        <v>1.410921310056482</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.000840043849741</v>
@@ -18983,7 +18947,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.566960948771456</v>
+        <v>1.432269166478065</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.873249801774394</v>
@@ -19072,7 +19036,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56717651244314</v>
+        <v>1.431559394323215</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.868004679745507</v>
@@ -19161,7 +19125,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567954139218471</v>
+        <v>1.438897484764835</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.893835750142647</v>
@@ -19250,7 +19214,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.574237773679469</v>
+        <v>1.443959127818089</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.880872047747683</v>
@@ -19339,7 +19303,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.638805932635838</v>
+        <v>1.468407059330575</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.998104450509697</v>
@@ -19428,7 +19392,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.651081101831687</v>
+        <v>1.471401841267775</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.14426994150407</v>
@@ -19517,7 +19481,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65302797378785</v>
+        <v>1.473707983922742</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.060019656499966</v>
@@ -19606,7 +19570,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.658880725802452</v>
+        <v>1.482030143028387</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.124634197923089</v>
@@ -19695,7 +19659,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.663046092219393</v>
+        <v>1.490064644769991</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.170676528353459</v>
@@ -19784,7 +19748,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.669242663568353</v>
+        <v>1.49254775780429</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.148225659710437</v>
@@ -19873,7 +19837,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.67292860173556</v>
+        <v>1.500252694808336</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.853916811638528</v>
@@ -19962,7 +19926,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.674747713733689</v>
+        <v>1.501590247504024</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.178137398524402</v>
@@ -20051,7 +20015,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.672771090169708</v>
+        <v>1.504267617115082</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.206578453287185</v>
@@ -20140,7 +20104,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.670162241621737</v>
+        <v>1.499264185145447</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.301313371698519</v>
@@ -20229,7 +20193,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.670938430138274</v>
+        <v>1.503956892399581</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.062258106103159</v>
@@ -20318,7 +20282,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.663131092018073</v>
+        <v>1.508649440849489</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.892685295784786</v>
@@ -20407,7 +20371,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.657582361386871</v>
+        <v>1.500691401726047</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.298500130878808</v>
@@ -20496,7 +20460,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656116147155979</v>
+        <v>1.495990013135608</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.693650846544614</v>
@@ -20585,7 +20549,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.647446307211386</v>
+        <v>1.49932693235401</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.875889421975602</v>
@@ -20674,7 +20638,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647866915166627</v>
+        <v>1.501289753499485</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.165074545591941</v>
@@ -20763,7 +20727,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.640763735078113</v>
+        <v>1.495969587959023</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.989864831937209</v>
@@ -20852,7 +20816,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.636275004626258</v>
+        <v>1.494274974395503</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.258143203125536</v>
@@ -20941,7 +20905,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.639149398670846</v>
+        <v>1.499323700945393</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.242127872507727</v>
@@ -21030,7 +20994,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.63964945751476</v>
+        <v>1.505339439402187</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.210137102684748</v>
@@ -21119,7 +21083,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.615787651333159</v>
+        <v>1.493699357898381</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.889336812364729</v>
@@ -21208,7 +21172,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.610080463163062</v>
+        <v>1.485268270134557</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.092814652389505</v>
@@ -21297,7 +21261,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.601627087472463</v>
+        <v>1.48337458807717</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.043496946429667</v>
@@ -21386,7 +21350,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592906295338076</v>
+        <v>1.484152227217622</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.082766903506805</v>
@@ -21672,7 +21636,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633278427498127</v>
+        <v>1.565312370680199</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.05016572411779</v>
@@ -21761,7 +21725,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.63437082384051</v>
+        <v>1.565106691670114</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.176588946725042</v>
@@ -21850,7 +21814,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582078382229254</v>
+        <v>1.517629404596724</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.191689001247005</v>
@@ -21939,7 +21903,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.530911448831219</v>
+        <v>1.476992758706769</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.246965177403223</v>
@@ -22028,7 +21992,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.510623283305131</v>
+        <v>1.460363262887501</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.346832167909138</v>
@@ -22117,7 +22081,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.514845694695509</v>
+        <v>1.465345638380912</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.872256519493996</v>
@@ -22206,7 +22170,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.378382196154351</v>
+        <v>1.359777385664088</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.829661391134291</v>
@@ -22295,7 +22259,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.371646462272535</v>
+        <v>1.354590674763754</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.820769791960704</v>
@@ -22384,7 +22348,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.367533596550097</v>
+        <v>1.351417063043169</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.82010689411788</v>
@@ -22473,7 +22437,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.359546943881818</v>
+        <v>1.343437550192718</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.819941245415131</v>
@@ -22562,7 +22526,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.29682554678694</v>
+        <v>1.284467176155009</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.889390734794045</v>
@@ -22651,7 +22615,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.271068755564059</v>
+        <v>1.264751998802785</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.888756002535304</v>
@@ -22740,7 +22704,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.269688250020159</v>
+        <v>1.264322512351589</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.883273871271802</v>
@@ -22829,7 +22793,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.267317345610974</v>
+        <v>1.260469302439565</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.888695433175597</v>
@@ -22918,7 +22882,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.265350714071292</v>
+        <v>1.259404165584805</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.883203721927454</v>
@@ -23007,7 +22971,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.26057143690524</v>
+        <v>1.254186679165449</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.87921410538769</v>
@@ -23096,7 +23060,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.254710225133824</v>
+        <v>1.248423430311532</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.881972519974194</v>
@@ -23185,7 +23149,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.249310801082554</v>
+        <v>1.244947555329024</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.827346017926435</v>
@@ -23274,7 +23238,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.24343024542352</v>
+        <v>1.240870506826046</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.797383888543864</v>
@@ -23363,7 +23327,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.236243831326645</v>
+        <v>1.234931529849646</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.751428936797119</v>
@@ -23452,7 +23416,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.23329443487728</v>
+        <v>1.22558400935914</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.638720958173596</v>
@@ -23541,7 +23505,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.276247259482999</v>
+        <v>1.265968878481564</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.615744336153508</v>
@@ -23630,7 +23594,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.283717865770654</v>
+        <v>1.272554082093657</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.595120803086572</v>
@@ -23719,7 +23683,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.285762920781686</v>
+        <v>1.274352469851413</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.600859594296404</v>
@@ -23808,7 +23772,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.307789147526603</v>
+        <v>1.296310895741374</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.578085749938292</v>
@@ -23897,7 +23861,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567844448020219</v>
+        <v>1.500315778299335</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.796072533135548</v>
@@ -23986,7 +23950,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.665054499888798</v>
+        <v>1.570377210358415</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.729316309642918</v>
@@ -24075,7 +24039,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.675208352551817</v>
+        <v>1.569331234995897</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.180525524169584</v>
@@ -24164,7 +24128,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.688632879293672</v>
+        <v>1.577350072275128</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.330961149381936</v>
@@ -24253,7 +24217,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.704322007060491</v>
+        <v>1.595497317806899</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.385160314351182</v>
@@ -24342,7 +24306,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.727819313453754</v>
+        <v>1.616276369039742</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.596933416769569</v>
@@ -24431,7 +24395,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722774979148316</v>
+        <v>1.621391941255709</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.427034955303266</v>
@@ -24520,7 +24484,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.712825485134184</v>
+        <v>1.618925123145735</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.297101479504478</v>
@@ -24609,7 +24573,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.701793300809002</v>
+        <v>1.603891106726559</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.281375935415481</v>
@@ -24698,7 +24662,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.700295035968714</v>
+        <v>1.599336354658411</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.283544349970414</v>
@@ -24787,7 +24751,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.695141828720403</v>
+        <v>1.602834662787165</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.424928617040206</v>
@@ -24876,7 +24840,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.6857838173435</v>
+        <v>1.594088934233903</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.30606530732929</v>
@@ -24965,7 +24929,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.685784491307717</v>
+        <v>1.597043533900305</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.4238040395717</v>
@@ -25054,7 +25018,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.691365126539573</v>
+        <v>1.599627950464933</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.355891008837857</v>
@@ -25143,7 +25107,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.666086783505289</v>
+        <v>1.563324227198368</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.355743985858085</v>
@@ -25232,7 +25196,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.667367588560932</v>
+        <v>1.563048714534561</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.526893517901939</v>
@@ -25321,7 +25285,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.655150952073099</v>
+        <v>1.548770928123323</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.190133787019742</v>
@@ -25410,7 +25374,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645145441238443</v>
+        <v>1.541133501938157</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.450833881037849</v>
@@ -25499,7 +25463,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.639092120669175</v>
+        <v>1.528389077059227</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.402254748295795</v>
@@ -25588,7 +25552,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631610333313232</v>
+        <v>1.519764263887741</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.272380058223785</v>
@@ -25677,7 +25641,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.619064419017459</v>
+        <v>1.505462694660305</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.33796067787971</v>
@@ -25766,7 +25730,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.614998321894987</v>
+        <v>1.501370358234877</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.152209045131885</v>
@@ -25855,7 +25819,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622002431316735</v>
+        <v>1.505551187896369</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.548921185824988</v>
@@ -25944,7 +25908,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62283825043808</v>
+        <v>1.51717426083679</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.382392127024541</v>
@@ -26230,7 +26194,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537610350849599</v>
+        <v>1.506648631875113</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.2414097023956</v>
@@ -26319,7 +26283,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.500080089854706</v>
+        <v>1.469367413024282</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.291896426793798</v>
@@ -26408,7 +26372,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.456504766726011</v>
+        <v>1.431555823650638</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.291888519920322</v>
@@ -26497,7 +26461,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.462341308874553</v>
+        <v>1.437254866599714</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.318500526748066</v>
@@ -26586,7 +26550,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.460644523918665</v>
+        <v>1.434147525253806</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.287958293238906</v>
@@ -26675,7 +26639,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408169913767602</v>
+        <v>1.374821240168094</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.608038994118739</v>
@@ -26764,7 +26728,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.200270646162376</v>
+        <v>1.184966058457877</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.430267900123875</v>
@@ -26853,7 +26817,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.188457729898757</v>
+        <v>1.177134761060741</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.434448957975195</v>
@@ -26942,7 +26906,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.185808104349443</v>
+        <v>1.176112167239502</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.4338026317717</v>
@@ -27031,7 +26995,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.180082505218845</v>
+        <v>1.169216041499003</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.439019523853829</v>
@@ -27120,7 +27084,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.160437907618878</v>
+        <v>1.136931755438383</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.541207183890657</v>
@@ -27209,7 +27173,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.132600535392849</v>
+        <v>1.117785137397513</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.550940818134027</v>
@@ -27298,7 +27262,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.129336802975068</v>
+        <v>1.115259934234651</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.551797234789095</v>
@@ -27387,7 +27351,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.129195662425983</v>
+        <v>1.113761692630007</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.552918566823777</v>
@@ -27476,7 +27440,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.128385997565865</v>
+        <v>1.112631347490861</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.549072225844402</v>
@@ -27565,7 +27529,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.127873102718486</v>
+        <v>1.111689074291728</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.543645495495257</v>
@@ -27654,7 +27618,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.127862443257542</v>
+        <v>1.111204819872933</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.526443302359058</v>
@@ -27743,7 +27707,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.126746616335932</v>
+        <v>1.109689062080927</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.534798359045192</v>
@@ -27832,7 +27796,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.125510476600695</v>
+        <v>1.107507380172102</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.529511936182544</v>
@@ -27921,7 +27885,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.127247315062878</v>
+        <v>1.108832106501999</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.525775962837401</v>
@@ -28010,7 +27974,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.143636589573316</v>
+        <v>1.121296911246761</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.530569582581767</v>
@@ -28099,7 +28063,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.161959049427433</v>
+        <v>1.144307299172835</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.411130161328099</v>
@@ -28188,7 +28152,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.170689047628847</v>
+        <v>1.15263588853208</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.38928206826207</v>
@@ -28277,7 +28241,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.17296341786521</v>
+        <v>1.153606315048634</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.385771384836195</v>
@@ -28366,7 +28330,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.178172478082928</v>
+        <v>1.157597967887922</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.385724050386535</v>
@@ -28455,7 +28419,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.366643583598767</v>
+        <v>1.341352735453011</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.631158531650396</v>
@@ -28544,7 +28508,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.493644788188558</v>
+        <v>1.452512308059319</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.125400589393384</v>
@@ -28633,7 +28597,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.513131887443619</v>
+        <v>1.463929847266401</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.187114438099214</v>
@@ -28722,7 +28686,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.522107480283621</v>
+        <v>1.477971548292815</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.339387738950809</v>
@@ -28811,7 +28775,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.551491507275194</v>
+        <v>1.503396093244553</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.369478373521318</v>
@@ -28900,7 +28864,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.548252666462838</v>
+        <v>1.498872583465581</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.286595285921146</v>
@@ -28989,7 +28953,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.522110033825732</v>
+        <v>1.48349384311424</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.452233754348752</v>
@@ -29078,7 +29042,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.531626421427344</v>
+        <v>1.489045811056001</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.312320828640944</v>
@@ -29167,7 +29131,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.532264756912963</v>
+        <v>1.493627735754625</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.375460042389566</v>
@@ -29256,7 +29220,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.517259317537083</v>
+        <v>1.479923237638227</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.321520075180828</v>
@@ -29345,7 +29309,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510970376514576</v>
+        <v>1.474425074999445</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.422621895595347</v>
@@ -29434,7 +29398,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.501877171150906</v>
+        <v>1.469358299840527</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.326058623486889</v>
@@ -29523,7 +29487,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.499082541603297</v>
+        <v>1.464441219871936</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.295695992239698</v>
@@ -29612,7 +29576,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521726705218213</v>
+        <v>1.485361391943797</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.214997932427052</v>
@@ -29701,7 +29665,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.48522340877645</v>
+        <v>1.452032166771298</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.901901516922951</v>
@@ -29790,7 +29754,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.500515840397888</v>
+        <v>1.466922130386777</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.896311403929597</v>
@@ -29879,7 +29843,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.502385275120202</v>
+        <v>1.463478951947096</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.887911089796211</v>
@@ -29968,7 +29932,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.490556096916893</v>
+        <v>1.452778548424481</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.900224400537913</v>
@@ -30057,7 +30021,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.472773912763614</v>
+        <v>1.441960484078727</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.919985375254594</v>
@@ -30146,7 +30110,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.462603908886327</v>
+        <v>1.431196209826086</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.903019587694526</v>
@@ -30235,7 +30199,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.448711865491879</v>
+        <v>1.418762043492401</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.897273676412517</v>
@@ -30324,7 +30288,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.462021391726985</v>
+        <v>1.427887676217649</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.877829994531617</v>
@@ -30413,7 +30377,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.455983494218363</v>
+        <v>1.42134756921032</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.892753367691353</v>
@@ -30502,7 +30466,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.457633546643317</v>
+        <v>1.424343611602578</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.881186431275817</v>
